--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2377,28 +2377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>727.3428598512115</v>
+        <v>800.4312121872601</v>
       </c>
       <c r="AB2" t="n">
-        <v>995.1825889507404</v>
+        <v>1095.185297047458</v>
       </c>
       <c r="AC2" t="n">
-        <v>900.2037594088172</v>
+        <v>990.6623493994663</v>
       </c>
       <c r="AD2" t="n">
-        <v>727342.8598512115</v>
+        <v>800431.2121872602</v>
       </c>
       <c r="AE2" t="n">
-        <v>995182.5889507404</v>
+        <v>1095185.297047458</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.216168447587265e-06</v>
+        <v>2.250230038484467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.49421296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>900203.7594088172</v>
+        <v>990662.3493994663</v>
       </c>
     </row>
     <row r="3">
@@ -2483,28 +2483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.5357699054574</v>
+        <v>490.4284321192767</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.7097901654076</v>
+        <v>671.0258170010156</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.6195926478914</v>
+        <v>606.9840548170872</v>
       </c>
       <c r="AD3" t="n">
-        <v>429535.7699054574</v>
+        <v>490428.4321192767</v>
       </c>
       <c r="AE3" t="n">
-        <v>587709.7901654076</v>
+        <v>671025.8170010156</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.706060025904578e-06</v>
+        <v>3.156657719055487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>531619.5926478914</v>
+        <v>606984.0548170872</v>
       </c>
     </row>
     <row r="4">
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.3857101011384</v>
+        <v>420.0828612098306</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.1463129415567</v>
+        <v>574.775903455152</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.6495420222433</v>
+        <v>519.9200979324387</v>
       </c>
       <c r="AD4" t="n">
-        <v>371385.7101011385</v>
+        <v>420082.8612098306</v>
       </c>
       <c r="AE4" t="n">
-        <v>508146.3129415567</v>
+        <v>574775.9034551521</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.896701795768626e-06</v>
+        <v>3.509394906070152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.012152777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>459649.5420222433</v>
+        <v>519920.0979324387</v>
       </c>
     </row>
     <row r="5">
@@ -2695,28 +2695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.5629718908153</v>
+        <v>376.3453743455279</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.1861091994297</v>
+        <v>514.9323443656743</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.4118559705904</v>
+        <v>465.787924131498</v>
       </c>
       <c r="AD5" t="n">
-        <v>327562.9718908153</v>
+        <v>376345.374345528</v>
       </c>
       <c r="AE5" t="n">
-        <v>448186.1091994297</v>
+        <v>514932.3443656743</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.001160881239588e-06</v>
+        <v>3.702671563087279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.592592592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>405411.8559705904</v>
+        <v>465787.924131498</v>
       </c>
     </row>
     <row r="6">
@@ -2801,28 +2801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>306.0381198344895</v>
+        <v>354.6499300886101</v>
       </c>
       <c r="AB6" t="n">
-        <v>418.7348570065122</v>
+        <v>485.24768039791</v>
       </c>
       <c r="AC6" t="n">
-        <v>378.7713899518728</v>
+        <v>438.9363228301294</v>
       </c>
       <c r="AD6" t="n">
-        <v>306038.1198344895</v>
+        <v>354649.93008861</v>
       </c>
       <c r="AE6" t="n">
-        <v>418734.8570065122</v>
+        <v>485247.6803979099</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.063290141225585e-06</v>
+        <v>3.817626960398119e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.36400462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>378771.3899518728</v>
+        <v>438936.3228301294</v>
       </c>
     </row>
     <row r="7">
@@ -2907,28 +2907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>306.8008984217271</v>
+        <v>355.4127086758476</v>
       </c>
       <c r="AB7" t="n">
-        <v>419.778524320987</v>
+        <v>486.2913477123845</v>
       </c>
       <c r="AC7" t="n">
-        <v>379.7154511226503</v>
+        <v>439.8803840009069</v>
       </c>
       <c r="AD7" t="n">
-        <v>306800.8984217271</v>
+        <v>355412.7086758476</v>
       </c>
       <c r="AE7" t="n">
-        <v>419778.524320987</v>
+        <v>486291.3477123845</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.060244074379273e-06</v>
+        <v>3.811990939228188e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.375578703703703</v>
       </c>
       <c r="AH7" t="n">
-        <v>379715.4511226504</v>
+        <v>439880.384000907</v>
       </c>
     </row>
   </sheetData>
@@ -3204,28 +3204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.0923345287237</v>
+        <v>612.5892664704553</v>
       </c>
       <c r="AB2" t="n">
-        <v>741.7146475281337</v>
+        <v>838.1716599159483</v>
       </c>
       <c r="AC2" t="n">
-        <v>670.926442571094</v>
+        <v>758.1777330748824</v>
       </c>
       <c r="AD2" t="n">
-        <v>542092.3345287236</v>
+        <v>612589.2664704553</v>
       </c>
       <c r="AE2" t="n">
-        <v>741714.6475281337</v>
+        <v>838171.6599159483</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.441308465238669e-06</v>
+        <v>2.747356375337503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.90856481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>670926.4425710939</v>
+        <v>758177.7330748824</v>
       </c>
     </row>
     <row r="3">
@@ -3310,28 +3310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.1262469840868</v>
+        <v>404.0958441689352</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.6358864216924</v>
+        <v>552.9017614423846</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.0011632263792</v>
+        <v>500.1335933328186</v>
       </c>
       <c r="AD3" t="n">
-        <v>357126.2469840868</v>
+        <v>404095.8441689352</v>
       </c>
       <c r="AE3" t="n">
-        <v>488635.8864216924</v>
+        <v>552901.7614423846</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.897241996102362e-06</v>
+        <v>3.616436050479135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.287037037037036</v>
       </c>
       <c r="AH3" t="n">
-        <v>442001.1632263792</v>
+        <v>500133.5933328186</v>
       </c>
     </row>
     <row r="4">
@@ -3416,28 +3416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.1739591470596</v>
+        <v>346.2288076779286</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.3430095285735</v>
+        <v>473.7255292019149</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.2758872156879</v>
+        <v>428.5138295728395</v>
       </c>
       <c r="AD4" t="n">
-        <v>299173.9591470596</v>
+        <v>346228.8076779286</v>
       </c>
       <c r="AE4" t="n">
-        <v>409343.0095285735</v>
+        <v>473725.5292019149</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.071802820061495e-06</v>
+        <v>3.94917592133591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.586805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>370275.8872156879</v>
+        <v>428513.8295728395</v>
       </c>
     </row>
     <row r="5">
@@ -3522,28 +3522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>283.3364985607875</v>
+        <v>330.2207548910643</v>
       </c>
       <c r="AB5" t="n">
-        <v>387.6734972549867</v>
+        <v>451.8226051534811</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.6744827801407</v>
+        <v>408.7012898546412</v>
       </c>
       <c r="AD5" t="n">
-        <v>283336.4985607875</v>
+        <v>330220.7548910643</v>
       </c>
       <c r="AE5" t="n">
-        <v>387673.4972549867</v>
+        <v>451822.6051534811</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.126675659214537e-06</v>
+        <v>4.053772021418495e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.392939814814816</v>
       </c>
       <c r="AH5" t="n">
-        <v>350674.4827801407</v>
+        <v>408701.2898546412</v>
       </c>
     </row>
   </sheetData>
@@ -3819,28 +3819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.064233167244</v>
+        <v>293.8327517859901</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.8854041083981</v>
+        <v>402.0349339797198</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.9700251901003</v>
+        <v>363.6652841402683</v>
       </c>
       <c r="AD2" t="n">
-        <v>252064.233167244</v>
+        <v>293832.7517859901</v>
       </c>
       <c r="AE2" t="n">
-        <v>344885.4041083981</v>
+        <v>402034.9339797198</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.181731336437891e-06</v>
+        <v>4.646516781120175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.041087962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>311970.0251901003</v>
+        <v>363665.2841402683</v>
       </c>
     </row>
     <row r="3">
@@ -3925,28 +3925,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.0176625375321</v>
+        <v>272.8714325022985</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.0885576636755</v>
+        <v>373.3547321876318</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.921509353425</v>
+        <v>337.7222805543011</v>
       </c>
       <c r="AD3" t="n">
-        <v>231017.6625375321</v>
+        <v>272871.4325022985</v>
       </c>
       <c r="AE3" t="n">
-        <v>316088.5576636756</v>
+        <v>373354.7321876318</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.25035754164095e-06</v>
+        <v>4.792672638523421e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>285921.509353425</v>
+        <v>337722.2805543011</v>
       </c>
     </row>
   </sheetData>
@@ -4222,28 +4222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.4250732220225</v>
+        <v>388.1987125984527</v>
       </c>
       <c r="AB2" t="n">
-        <v>456.206894858446</v>
+        <v>531.1506046957029</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.6671491035536</v>
+        <v>480.4583364581</v>
       </c>
       <c r="AD2" t="n">
-        <v>333425.0732220226</v>
+        <v>388198.7125984527</v>
       </c>
       <c r="AE2" t="n">
-        <v>456206.894858446</v>
+        <v>531150.6046957029</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.879970144760283e-06</v>
+        <v>3.816989359066512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.92650462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>412667.1491035536</v>
+        <v>480458.3364581</v>
       </c>
     </row>
     <row r="3">
@@ -4328,28 +4328,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.6735895422829</v>
+        <v>292.5607737270873</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.2461759160892</v>
+        <v>400.2945574838177</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.7735584252662</v>
+        <v>362.0910067345013</v>
       </c>
       <c r="AD3" t="n">
-        <v>248673.5895422829</v>
+        <v>292560.7737270874</v>
       </c>
       <c r="AE3" t="n">
-        <v>340246.1759160892</v>
+        <v>400294.5574838177</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.22070204667195e-06</v>
+        <v>4.508792921754026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.557870370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>307773.5584252662</v>
+        <v>362091.0067345013</v>
       </c>
     </row>
     <row r="4">
@@ -4434,28 +4434,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>249.8692735059564</v>
+        <v>293.7564576907608</v>
       </c>
       <c r="AB4" t="n">
-        <v>341.88216346504</v>
+        <v>401.9305450327693</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.2534096186686</v>
+        <v>363.5708579279039</v>
       </c>
       <c r="AD4" t="n">
-        <v>249869.2735059564</v>
+        <v>293756.4576907608</v>
       </c>
       <c r="AE4" t="n">
-        <v>341882.16346504</v>
+        <v>401930.5450327693</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220238071316155e-06</v>
+        <v>4.507850891370791e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.557870370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>309253.4096186685</v>
+        <v>363570.8579279039</v>
       </c>
     </row>
   </sheetData>
@@ -4731,28 +4731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.3639553741294</v>
+        <v>268.4646572160856</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.4576384494123</v>
+        <v>367.3251878278306</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.6371199729429</v>
+        <v>332.2681874456807</v>
       </c>
       <c r="AD2" t="n">
-        <v>228363.9553741294</v>
+        <v>268464.6572160856</v>
       </c>
       <c r="AE2" t="n">
-        <v>312457.6384494124</v>
+        <v>367325.1878278306</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.230463413853862e-06</v>
+        <v>4.966806359525026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.168402777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>282637.1199729429</v>
+        <v>332268.1874456807</v>
       </c>
     </row>
   </sheetData>
@@ -5028,28 +5028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>590.2541634026726</v>
+        <v>661.3469531676316</v>
       </c>
       <c r="AB2" t="n">
-        <v>807.6117865434035</v>
+        <v>904.8840778923492</v>
       </c>
       <c r="AC2" t="n">
-        <v>730.5344511259616</v>
+        <v>818.5232115110823</v>
       </c>
       <c r="AD2" t="n">
-        <v>590254.1634026726</v>
+        <v>661346.9531676315</v>
       </c>
       <c r="AE2" t="n">
-        <v>807611.7865434035</v>
+        <v>904884.0778923492</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.381842234109803e-06</v>
+        <v>2.612737092023416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.27314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>730534.4511259616</v>
+        <v>818523.2115110824</v>
       </c>
     </row>
     <row r="3">
@@ -5134,28 +5134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.7944738479445</v>
+        <v>422.2181438122912</v>
       </c>
       <c r="AB3" t="n">
-        <v>512.8103338839796</v>
+        <v>577.6974913138587</v>
       </c>
       <c r="AC3" t="n">
-        <v>463.8684353519157</v>
+        <v>522.5628535463846</v>
       </c>
       <c r="AD3" t="n">
-        <v>374794.4738479445</v>
+        <v>422218.1438122912</v>
       </c>
       <c r="AE3" t="n">
-        <v>512810.3338839796</v>
+        <v>577697.4913138587</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.847248206120133e-06</v>
+        <v>3.492709795060641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.434606481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>463868.4353519157</v>
+        <v>522562.8535463846</v>
       </c>
     </row>
     <row r="4">
@@ -5240,28 +5240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>313.742907833472</v>
+        <v>361.2518291438393</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.2768878579768</v>
+        <v>494.2806899405052</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.3073041747069</v>
+        <v>447.1072346198879</v>
       </c>
       <c r="AD4" t="n">
-        <v>313742.907833472</v>
+        <v>361251.8291438393</v>
       </c>
       <c r="AE4" t="n">
-        <v>429276.8878579768</v>
+        <v>494280.6899405052</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.027024992392981e-06</v>
+        <v>3.832625211007113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.685185185185184</v>
       </c>
       <c r="AH4" t="n">
-        <v>388307.3041747069</v>
+        <v>447107.234619888</v>
       </c>
     </row>
     <row r="5">
@@ -5346,28 +5346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>288.9009499958271</v>
+        <v>336.2392791056023</v>
       </c>
       <c r="AB5" t="n">
-        <v>395.2870251946798</v>
+        <v>460.0574155023611</v>
       </c>
       <c r="AC5" t="n">
-        <v>357.5613862989229</v>
+        <v>416.150181461453</v>
       </c>
       <c r="AD5" t="n">
-        <v>288900.9499958271</v>
+        <v>336239.2791056023</v>
       </c>
       <c r="AE5" t="n">
-        <v>395287.0251946797</v>
+        <v>460057.4155023611</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.111340789728494e-06</v>
+        <v>3.992046457300067e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>357561.3862989229</v>
+        <v>416150.181461453</v>
       </c>
     </row>
     <row r="6">
@@ -5452,28 +5452,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>288.9174709673077</v>
+        <v>336.2558000770829</v>
       </c>
       <c r="AB6" t="n">
-        <v>395.3096299167132</v>
+        <v>460.0800202243947</v>
       </c>
       <c r="AC6" t="n">
-        <v>357.5818336580115</v>
+        <v>416.1706288205415</v>
       </c>
       <c r="AD6" t="n">
-        <v>288917.4709673077</v>
+        <v>336255.8000770829</v>
       </c>
       <c r="AE6" t="n">
-        <v>395309.6299167132</v>
+        <v>460080.0202243947</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.115271219617059e-06</v>
+        <v>3.999477971335435e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.36400462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>357581.8336580115</v>
+        <v>416170.6288205415</v>
       </c>
     </row>
   </sheetData>
@@ -5749,28 +5749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.922357162331</v>
+        <v>261.0354617555082</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.6439595927777</v>
+        <v>357.1602348456965</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.6646062563066</v>
+        <v>323.0733633095604</v>
       </c>
       <c r="AD2" t="n">
-        <v>221922.357162331</v>
+        <v>261035.4617555082</v>
       </c>
       <c r="AE2" t="n">
-        <v>303643.9595927777</v>
+        <v>357160.2348456965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.194275070073055e-06</v>
+        <v>5.030522062019318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.49537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>274664.6062563066</v>
+        <v>323073.3633095604</v>
       </c>
     </row>
   </sheetData>
@@ -6046,28 +6046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.27022353389</v>
+        <v>488.246676867175</v>
       </c>
       <c r="AB2" t="n">
-        <v>590.0829461385229</v>
+        <v>668.0406432128416</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.7662579456778</v>
+        <v>604.2837818255388</v>
       </c>
       <c r="AD2" t="n">
-        <v>431270.22353389</v>
+        <v>488246.676867175</v>
       </c>
       <c r="AE2" t="n">
-        <v>590082.9461385228</v>
+        <v>668040.6432128416</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.641727883390624e-06</v>
+        <v>3.217763962874331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.866898148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>533766.2579456778</v>
+        <v>604283.7818255387</v>
       </c>
     </row>
     <row r="3">
@@ -6152,28 +6152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>293.2331922413312</v>
+        <v>338.8143549079592</v>
       </c>
       <c r="AB3" t="n">
-        <v>401.2145901600172</v>
+        <v>463.5807478194723</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.9232327833584</v>
+        <v>419.3372518872471</v>
       </c>
       <c r="AD3" t="n">
-        <v>293233.1922413312</v>
+        <v>338814.3549079592</v>
       </c>
       <c r="AE3" t="n">
-        <v>401214.5901600173</v>
+        <v>463580.7478194723</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.064236733465036e-06</v>
+        <v>4.045875469975679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>362923.2327833584</v>
+        <v>419337.2518872471</v>
       </c>
     </row>
     <row r="4">
@@ -6258,28 +6258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.1283921764481</v>
+        <v>310.5389626424839</v>
       </c>
       <c r="AB4" t="n">
-        <v>362.760362814973</v>
+        <v>424.893108699581</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.139022925278</v>
+        <v>384.3419067465156</v>
       </c>
       <c r="AD4" t="n">
-        <v>265128.3921764481</v>
+        <v>310538.9626424839</v>
       </c>
       <c r="AE4" t="n">
-        <v>362760.3628149729</v>
+        <v>424893.108699581</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.179267958544914e-06</v>
+        <v>4.271335081408281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.433449074074075</v>
       </c>
       <c r="AH4" t="n">
-        <v>328139.022925278</v>
+        <v>384341.9067465157</v>
       </c>
     </row>
   </sheetData>
@@ -6555,28 +6555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.3508700793005</v>
+        <v>565.6655972638951</v>
       </c>
       <c r="AB2" t="n">
-        <v>694.1798431831933</v>
+        <v>773.9686255813492</v>
       </c>
       <c r="AC2" t="n">
-        <v>627.9282932373176</v>
+        <v>700.1021462276531</v>
       </c>
       <c r="AD2" t="n">
-        <v>507350.8700793005</v>
+        <v>565665.5972638951</v>
       </c>
       <c r="AE2" t="n">
-        <v>694179.8431831932</v>
+        <v>773968.6255813492</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.504524165350495e-06</v>
+        <v>2.892753248516207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>627928.2932373176</v>
+        <v>700102.146227653</v>
       </c>
     </row>
     <row r="3">
@@ -6661,28 +6661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.8484223588499</v>
+        <v>386.3466800768477</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.9956045256172</v>
+        <v>528.6165720937345</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.6170766551215</v>
+        <v>478.1661483711264</v>
       </c>
       <c r="AD3" t="n">
-        <v>339848.4223588499</v>
+        <v>386346.6800768477</v>
       </c>
       <c r="AE3" t="n">
-        <v>464995.6045256172</v>
+        <v>528616.5720937345</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.949212191475524e-06</v>
+        <v>3.747756286536381e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.142361111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>420617.0766551215</v>
+        <v>478166.1483711264</v>
       </c>
     </row>
     <row r="4">
@@ -6767,28 +6767,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>283.8796811126372</v>
+        <v>330.2925979760633</v>
       </c>
       <c r="AB4" t="n">
-        <v>388.4167035859503</v>
+        <v>451.9209040318701</v>
       </c>
       <c r="AC4" t="n">
-        <v>351.3467585419738</v>
+        <v>408.7902072260401</v>
       </c>
       <c r="AD4" t="n">
-        <v>283879.6811126372</v>
+        <v>330292.5979760633</v>
       </c>
       <c r="AE4" t="n">
-        <v>388416.7035859503</v>
+        <v>451920.9040318701</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.121756410788468e-06</v>
+        <v>4.079507588659156e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.479745370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>351346.7585419738</v>
+        <v>408790.2072260401</v>
       </c>
     </row>
     <row r="5">
@@ -6873,28 +6873,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.9575113528076</v>
+        <v>324.3704282162337</v>
       </c>
       <c r="AB5" t="n">
-        <v>380.313729652861</v>
+        <v>443.8179300987807</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.0171210684632</v>
+        <v>401.4605697525294</v>
       </c>
       <c r="AD5" t="n">
-        <v>277957.5113528076</v>
+        <v>324370.4282162337</v>
       </c>
       <c r="AE5" t="n">
-        <v>380313.729652861</v>
+        <v>443817.9300987807</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.142542888576009e-06</v>
+        <v>4.119473813549345e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.407407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>344017.1210684631</v>
+        <v>401460.5697525294</v>
       </c>
     </row>
   </sheetData>
@@ -7170,28 +7170,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>683.6280417330706</v>
+        <v>756.0999230232674</v>
       </c>
       <c r="AB2" t="n">
-        <v>935.3700462398358</v>
+        <v>1034.529271454836</v>
       </c>
       <c r="AC2" t="n">
-        <v>846.0996418268102</v>
+        <v>935.7952497581373</v>
       </c>
       <c r="AD2" t="n">
-        <v>683628.0417330706</v>
+        <v>756099.9230232674</v>
       </c>
       <c r="AE2" t="n">
-        <v>935370.0462398358</v>
+        <v>1034529.271454836</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.268135247587898e-06</v>
+        <v>2.362439782732277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08043981481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>846099.6418268102</v>
+        <v>935795.2497581373</v>
       </c>
     </row>
     <row r="3">
@@ -7276,28 +7276,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.6519686022457</v>
+        <v>471.0309049445219</v>
       </c>
       <c r="AB3" t="n">
-        <v>561.8721401278367</v>
+        <v>644.4852645620135</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.2478516665367</v>
+        <v>582.9764954529641</v>
       </c>
       <c r="AD3" t="n">
-        <v>410651.9686022457</v>
+        <v>471030.9049445218</v>
       </c>
       <c r="AE3" t="n">
-        <v>561872.1401278367</v>
+        <v>644485.2645620136</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.751725958784536e-06</v>
+        <v>3.263332599065376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.744212962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>508247.8516665367</v>
+        <v>582976.4954529641</v>
       </c>
     </row>
     <row r="4">
@@ -7382,28 +7382,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.8931682015622</v>
+        <v>392.2645899590403</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.529804229209</v>
+        <v>536.7137174743086</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.6231001063005</v>
+        <v>485.4905135609933</v>
       </c>
       <c r="AD4" t="n">
-        <v>343893.1682015621</v>
+        <v>392264.5899590403</v>
       </c>
       <c r="AE4" t="n">
-        <v>470529.804229209</v>
+        <v>536713.7174743087</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.938544964784857e-06</v>
+        <v>3.611362237690389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.902199074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>425623.1001063004</v>
+        <v>485490.5135609934</v>
       </c>
     </row>
     <row r="5">
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.0304191423998</v>
+        <v>361.2312486992858</v>
       </c>
       <c r="AB5" t="n">
-        <v>428.3020293980693</v>
+        <v>494.252530868322</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.4254848379905</v>
+        <v>447.0817630100323</v>
       </c>
       <c r="AD5" t="n">
-        <v>313030.4191423998</v>
+        <v>361231.2486992858</v>
       </c>
       <c r="AE5" t="n">
-        <v>428302.0293980693</v>
+        <v>494252.5308683219</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.042886211831225e-06</v>
+        <v>3.805742067027284e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.497106481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>387425.4848379905</v>
+        <v>447081.7630100323</v>
       </c>
     </row>
     <row r="6">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>299.1780409069875</v>
+        <v>347.3788704638735</v>
       </c>
       <c r="AB6" t="n">
-        <v>409.3485943725814</v>
+        <v>475.299095842834</v>
       </c>
       <c r="AC6" t="n">
-        <v>370.2809390500219</v>
+        <v>429.9372172220639</v>
       </c>
       <c r="AD6" t="n">
-        <v>299178.0409069875</v>
+        <v>347378.8704638734</v>
       </c>
       <c r="AE6" t="n">
-        <v>409348.5943725814</v>
+        <v>475299.095842834</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.083066326751668e-06</v>
+        <v>3.880594573606027e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.352430555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>370280.9390500219</v>
+        <v>429937.2172220639</v>
       </c>
     </row>
     <row r="7">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>300.3119891330288</v>
+        <v>348.5128186899148</v>
       </c>
       <c r="AB7" t="n">
-        <v>410.9001123617161</v>
+        <v>476.8506138319688</v>
       </c>
       <c r="AC7" t="n">
-        <v>371.684382339843</v>
+        <v>431.3406605118848</v>
       </c>
       <c r="AD7" t="n">
-        <v>300311.9891330288</v>
+        <v>348512.8186899148</v>
       </c>
       <c r="AE7" t="n">
-        <v>410900.1123617161</v>
+        <v>476850.6138319688</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.083013388523842e-06</v>
+        <v>3.880495953702762e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.352430555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>371684.382339843</v>
+        <v>431340.6605118848</v>
       </c>
     </row>
   </sheetData>
@@ -7997,28 +7997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>372.2313661010373</v>
+        <v>416.7133895660245</v>
       </c>
       <c r="AB2" t="n">
-        <v>509.3033767883279</v>
+        <v>570.1656437014989</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.6961773194279</v>
+        <v>515.749834899134</v>
       </c>
       <c r="AD2" t="n">
-        <v>372231.3661010373</v>
+        <v>416713.3895660245</v>
       </c>
       <c r="AE2" t="n">
-        <v>509303.3767883279</v>
+        <v>570165.6437014989</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.795619691587116e-06</v>
+        <v>3.599314922308294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.230324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>460696.177319428</v>
+        <v>515749.834899134</v>
       </c>
     </row>
     <row r="3">
@@ -8103,28 +8103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.6678795592261</v>
+        <v>303.1498135156623</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.9208044343886</v>
+        <v>414.7829488780111</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.1430995901386</v>
+        <v>375.196646388618</v>
       </c>
       <c r="AD3" t="n">
-        <v>258667.8795592261</v>
+        <v>303149.8135156623</v>
       </c>
       <c r="AE3" t="n">
-        <v>353920.8044343886</v>
+        <v>414782.9488780111</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.187926484792607e-06</v>
+        <v>4.385692851623249e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.575231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>320143.0995901386</v>
+        <v>375196.646388618</v>
       </c>
     </row>
     <row r="4">
@@ -8209,28 +8209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.9565435724104</v>
+        <v>299.4384775288498</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.8427908044744</v>
+        <v>409.7049352482662</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.5497244541314</v>
+        <v>370.6032712526591</v>
       </c>
       <c r="AD4" t="n">
-        <v>254956.5435724104</v>
+        <v>299438.4775288498</v>
       </c>
       <c r="AE4" t="n">
-        <v>348842.7908044744</v>
+        <v>409704.9352482661</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.208085899567546e-06</v>
+        <v>4.426102345217244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.505787037037038</v>
       </c>
       <c r="AH4" t="n">
-        <v>315549.7244541314</v>
+        <v>370603.271252659</v>
       </c>
     </row>
   </sheetData>
@@ -8506,28 +8506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.2079478223841</v>
+        <v>320.7036925038517</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.6563878790129</v>
+        <v>438.8009405321369</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.327076474435</v>
+        <v>396.922394628737</v>
       </c>
       <c r="AD2" t="n">
-        <v>278207.9478223841</v>
+        <v>320703.6925038517</v>
       </c>
       <c r="AE2" t="n">
-        <v>380656.3878790129</v>
+        <v>438800.9405321369</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.077690526178892e-06</v>
+        <v>4.346658515203787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>344327.076474435</v>
+        <v>396922.394628737</v>
       </c>
     </row>
     <row r="3">
@@ -8612,28 +8612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.0094715326326</v>
+        <v>279.5904675601237</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.2868150707246</v>
+        <v>382.5480123766544</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.3373365798744</v>
+        <v>346.0381669849332</v>
       </c>
       <c r="AD3" t="n">
-        <v>237009.4715326326</v>
+        <v>279590.4675601237</v>
       </c>
       <c r="AE3" t="n">
-        <v>324286.8150707246</v>
+        <v>382548.0123766544</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243299648430955e-06</v>
+        <v>4.693123155804635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.69386574074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>293337.3365798744</v>
+        <v>346038.1669849333</v>
       </c>
     </row>
   </sheetData>
@@ -14898,28 +14898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.4150237813602</v>
+        <v>275.5712680866897</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.0545360296218</v>
+        <v>377.0487663425354</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.7496820647935</v>
+        <v>341.0637612740704</v>
       </c>
       <c r="AD2" t="n">
-        <v>224415.0237813602</v>
+        <v>275571.2680866897</v>
       </c>
       <c r="AE2" t="n">
-        <v>307054.5360296218</v>
+        <v>377048.7663425354</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.242399957581983e-06</v>
+        <v>4.874654086116291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.962962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>277749.6820647935</v>
+        <v>341063.7612740704</v>
       </c>
     </row>
     <row r="3">
@@ -15004,28 +15004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.4852959893118</v>
+        <v>276.6415402946413</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.5189296816177</v>
+        <v>378.5131599945322</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.0743160419328</v>
+        <v>342.3883952512099</v>
       </c>
       <c r="AD3" t="n">
-        <v>225485.2959893118</v>
+        <v>276641.5402946413</v>
       </c>
       <c r="AE3" t="n">
-        <v>308518.9296816178</v>
+        <v>378513.1599945322</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.246041018719624e-06</v>
+        <v>4.882569227878753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>279074.3160419328</v>
+        <v>342388.3952512099</v>
       </c>
     </row>
   </sheetData>
@@ -15301,28 +15301,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.566983103693</v>
+        <v>263.6165819764092</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.6306975952953</v>
+        <v>360.6918374029208</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.1754169827963</v>
+        <v>326.2679146753584</v>
       </c>
       <c r="AD2" t="n">
-        <v>225566.9831036931</v>
+        <v>263616.5819764092</v>
       </c>
       <c r="AE2" t="n">
-        <v>308630.6975952953</v>
+        <v>360691.8374029208</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.111230743549981e-06</v>
+        <v>5.021619249752482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.076967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>279175.4169827963</v>
+        <v>326267.9146753585</v>
       </c>
     </row>
   </sheetData>
@@ -15598,28 +15598,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>473.7533129700271</v>
+        <v>531.2843431297744</v>
       </c>
       <c r="AB2" t="n">
-        <v>648.2101833266753</v>
+        <v>726.926676881163</v>
       </c>
       <c r="AC2" t="n">
-        <v>586.3459131986831</v>
+        <v>657.5498150876227</v>
       </c>
       <c r="AD2" t="n">
-        <v>473753.3129700271</v>
+        <v>531284.3431297743</v>
       </c>
       <c r="AE2" t="n">
-        <v>648210.1833266753</v>
+        <v>726926.6768811629</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.572444059056466e-06</v>
+        <v>3.051450653843982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.19386574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>586345.9131986831</v>
+        <v>657549.8150876227</v>
       </c>
     </row>
     <row r="3">
@@ -15704,28 +15704,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.4852478399787</v>
+        <v>366.9308476366033</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.451369620177</v>
+        <v>502.0509735829185</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.0377652213566</v>
+        <v>454.1359332971309</v>
       </c>
       <c r="AD3" t="n">
-        <v>309485.2478399787</v>
+        <v>366930.8476366033</v>
       </c>
       <c r="AE3" t="n">
-        <v>423451.369620177</v>
+        <v>502050.9735829185</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.009772619533121e-06</v>
+        <v>3.900120922350631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.974537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>383037.7652213566</v>
+        <v>454135.9332971309</v>
       </c>
     </row>
     <row r="4">
@@ -15810,28 +15810,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>272.8769173662222</v>
+        <v>318.7993503702444</v>
       </c>
       <c r="AB4" t="n">
-        <v>373.3622368204273</v>
+        <v>436.1953356112896</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.7290689554754</v>
+        <v>394.5654649845459</v>
       </c>
       <c r="AD4" t="n">
-        <v>272876.9173662222</v>
+        <v>318799.3503702444</v>
       </c>
       <c r="AE4" t="n">
-        <v>373362.2368204272</v>
+        <v>436195.3356112897</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.155234912099517e-06</v>
+        <v>4.182401875497998e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.436342592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>337729.0689554754</v>
+        <v>394565.4649845459</v>
       </c>
     </row>
     <row r="5">
@@ -15916,28 +15916,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.2771263018313</v>
+        <v>318.1995593058534</v>
       </c>
       <c r="AB5" t="n">
-        <v>372.5415762252134</v>
+        <v>435.3746750160759</v>
       </c>
       <c r="AC5" t="n">
-        <v>336.9867310556644</v>
+        <v>393.8231270847349</v>
       </c>
       <c r="AD5" t="n">
-        <v>272277.1263018313</v>
+        <v>318199.5593058534</v>
       </c>
       <c r="AE5" t="n">
-        <v>372541.5762252134</v>
+        <v>435374.6750160758</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.16088500876432e-06</v>
+        <v>4.193366329885291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.416087962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>336986.7310556644</v>
+        <v>393823.1270847349</v>
       </c>
     </row>
   </sheetData>
@@ -16213,28 +16213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>628.0128564084692</v>
+        <v>699.9338406332161</v>
       </c>
       <c r="AB2" t="n">
-        <v>859.2748961099038</v>
+        <v>957.680359656092</v>
       </c>
       <c r="AC2" t="n">
-        <v>777.2669060250649</v>
+        <v>866.2806902433408</v>
       </c>
       <c r="AD2" t="n">
-        <v>628012.8564084693</v>
+        <v>699933.8406332161</v>
       </c>
       <c r="AE2" t="n">
-        <v>859274.8961099038</v>
+        <v>957680.359656092</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.325656494205845e-06</v>
+        <v>2.487451544375073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.65219907407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>777266.906025065</v>
+        <v>866280.6902433408</v>
       </c>
     </row>
     <row r="3">
@@ -16319,28 +16319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>392.7326181860216</v>
+        <v>452.5814308520723</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.3540943424124</v>
+        <v>619.2418801753718</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.06977375958</v>
+        <v>560.1423042428709</v>
       </c>
       <c r="AD3" t="n">
-        <v>392732.6181860216</v>
+        <v>452581.4308520723</v>
       </c>
       <c r="AE3" t="n">
-        <v>537354.0943424124</v>
+        <v>619241.8801753718</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.798697277441287e-06</v>
+        <v>3.375061594153688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.587962962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>486069.77375958</v>
+        <v>560142.3042428709</v>
       </c>
     </row>
     <row r="4">
@@ -16425,28 +16425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>329.3922863567934</v>
+        <v>377.3396091732914</v>
       </c>
       <c r="AB4" t="n">
-        <v>450.6890579554396</v>
+        <v>516.2927003195651</v>
       </c>
       <c r="AC4" t="n">
-        <v>407.6759268102372</v>
+        <v>467.0184496224211</v>
       </c>
       <c r="AD4" t="n">
-        <v>329392.2863567934</v>
+        <v>377339.6091732914</v>
       </c>
       <c r="AE4" t="n">
-        <v>450689.0579554396</v>
+        <v>516292.7003195651</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.979490454243188e-06</v>
+        <v>3.714300506205163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.803819444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>407675.9268102372</v>
+        <v>467018.4496224211</v>
       </c>
     </row>
     <row r="5">
@@ -16531,28 +16531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.4826090493314</v>
+        <v>347.2593396652371</v>
       </c>
       <c r="AB5" t="n">
-        <v>409.7653179415345</v>
+        <v>475.1355485308131</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.6578911064294</v>
+        <v>429.7892786359621</v>
       </c>
       <c r="AD5" t="n">
-        <v>299482.6090493314</v>
+        <v>347259.3396652371</v>
       </c>
       <c r="AE5" t="n">
-        <v>409765.3179415344</v>
+        <v>475135.5485308131</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.081069850598079e-06</v>
+        <v>3.904903296176806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>370657.8911064294</v>
+        <v>429789.2786359622</v>
       </c>
     </row>
     <row r="6">
@@ -16637,28 +16637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>294.6284851916736</v>
+        <v>342.4052158075793</v>
       </c>
       <c r="AB6" t="n">
-        <v>403.1236915306564</v>
+        <v>468.4939221199351</v>
       </c>
       <c r="AC6" t="n">
-        <v>364.6501321986243</v>
+        <v>423.7815197281571</v>
       </c>
       <c r="AD6" t="n">
-        <v>294628.4851916736</v>
+        <v>342405.2158075793</v>
       </c>
       <c r="AE6" t="n">
-        <v>403123.6915306564</v>
+        <v>468493.922119935</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.097563825098163e-06</v>
+        <v>3.935852461758118e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.36400462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>364650.1321986243</v>
+        <v>423781.5197281571</v>
       </c>
     </row>
   </sheetData>
@@ -16934,28 +16934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.9434317219026</v>
+        <v>275.6591451920518</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.6187476700131</v>
+        <v>377.1690036749563</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.591975962666</v>
+        <v>341.172523324239</v>
       </c>
       <c r="AD2" t="n">
-        <v>229943.4317219026</v>
+        <v>275659.1451920518</v>
       </c>
       <c r="AE2" t="n">
-        <v>314618.7476700131</v>
+        <v>377169.0036749563</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.913202607772444e-06</v>
+        <v>4.784774529988996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.37326388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>284591.975962666</v>
+        <v>341172.523324239</v>
       </c>
     </row>
   </sheetData>
@@ -17231,28 +17231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.2216961701861</v>
+        <v>359.2060901873291</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.6177901309423</v>
+        <v>491.4816196485747</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.760934371094</v>
+        <v>444.5753036680995</v>
       </c>
       <c r="AD2" t="n">
-        <v>305221.6961701861</v>
+        <v>359206.0901873291</v>
       </c>
       <c r="AE2" t="n">
-        <v>417617.7901309423</v>
+        <v>491481.6196485747</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.97568522677302e-06</v>
+        <v>4.068495905944093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.611111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>377760.934371094</v>
+        <v>444575.3036680995</v>
       </c>
     </row>
     <row r="3">
@@ -17337,28 +17337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.7054653366895</v>
+        <v>285.9612532340642</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.080325082943</v>
+        <v>391.2648023949677</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.3870449347892</v>
+        <v>353.9230387979903</v>
       </c>
       <c r="AD3" t="n">
-        <v>242705.4653366896</v>
+        <v>285961.2532340642</v>
       </c>
       <c r="AE3" t="n">
-        <v>332080.325082943</v>
+        <v>391264.8023949676</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.234293234407576e-06</v>
+        <v>4.601043098203089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.612847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>300387.0449347892</v>
+        <v>353923.0387979903</v>
       </c>
     </row>
   </sheetData>
@@ -17634,28 +17634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.5377430472652</v>
+        <v>456.844279691133</v>
       </c>
       <c r="AB2" t="n">
-        <v>548.0334105153728</v>
+        <v>625.0744980205925</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.7298709855073</v>
+        <v>565.4182652270742</v>
       </c>
       <c r="AD2" t="n">
-        <v>400537.7430472652</v>
+        <v>456844.279691133</v>
       </c>
       <c r="AE2" t="n">
-        <v>548033.4105153728</v>
+        <v>625074.4980205925</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.71815429369527e-06</v>
+        <v>3.403979988260515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>495729.8709855073</v>
+        <v>565418.2652270743</v>
       </c>
     </row>
     <row r="3">
@@ -17740,28 +17740,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.003341189373</v>
+        <v>320.0485705044672</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.2717037064604</v>
+        <v>437.9045737106361</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.3608604053679</v>
+        <v>396.1115757986216</v>
       </c>
       <c r="AD3" t="n">
-        <v>275003.341189373</v>
+        <v>320048.5705044672</v>
       </c>
       <c r="AE3" t="n">
-        <v>376271.7037064604</v>
+        <v>437904.5737106361</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.129241216712424e-06</v>
+        <v>4.218418868703792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>340360.8604053679</v>
+        <v>396111.5757986216</v>
       </c>
     </row>
     <row r="4">
@@ -17846,28 +17846,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>260.9508778806854</v>
+        <v>305.8255149951874</v>
       </c>
       <c r="AB4" t="n">
-        <v>357.0445034565868</v>
+        <v>418.4439616859156</v>
       </c>
       <c r="AC4" t="n">
-        <v>322.9686771617972</v>
+        <v>378.5082572723998</v>
       </c>
       <c r="AD4" t="n">
-        <v>260950.8778806854</v>
+        <v>305825.5149951874</v>
       </c>
       <c r="AE4" t="n">
-        <v>357044.5034565867</v>
+        <v>418443.9616859156</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.189973182621472e-06</v>
+        <v>4.338740074640132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.476851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>322968.6771617972</v>
+        <v>378508.2572723998</v>
       </c>
     </row>
   </sheetData>
